--- a/results/I3_N5_M2_T30_C150_DepCentral_s2_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepCentral_s2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>581.4862428782606</v>
+        <v>422.714365082849</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9010000228881836</v>
+        <v>0.8660001754760742</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.976614139100398e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.42908392284503</v>
+        <v>22.71436508284903</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.692781900106503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.569940855350567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>497.6600000001715</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.52</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,39 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -667,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -678,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -722,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -813,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -885,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.66483080554379</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>20.66483080554371</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.99312545677591</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>22.99312545677586</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>21.9585850325899</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -975,90 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1160,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>154.9200000000639</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1171,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>152.65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -1182,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>157.9800000000633</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -1193,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>156.3850000000585</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -1204,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7900000000647</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -1215,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.2650000000631</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
@@ -1226,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>115.6150000000653</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
@@ -1237,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>116.6850000000632</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
@@ -1248,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>116.8750000000582</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
@@ -1259,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>115.9200000000656</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
@@ -1270,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>193.960000000009</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -1281,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>200.6800000000369</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
@@ -1292,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>178.3550000000087</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -1303,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>197.3550000000085</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -1314,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>196.7550000000082</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -1325,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>152.79000000001</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23">
@@ -1336,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.9650000000074</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24">
@@ -1347,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>140.4950000000099</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25">
@@ -1358,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>149.705000000009</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26">
@@ -1369,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>151.4350000000086</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27">
@@ -1380,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>46.62000000000808</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
@@ -1391,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.47500000000765</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29">
@@ -1402,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.92500000000837</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30">
@@ -1413,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>39.65500000000794</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31">
@@ -1424,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.7600000000075</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32">
@@ -1435,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>193.9600000000568</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>200.6800000000671</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34">
@@ -1457,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>178.3550000000573</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35">
@@ -1468,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>197.3550000000627</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36">
@@ -1479,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>196.755000000066</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37">
@@ -1490,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>154.9199999999429</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38">
@@ -1501,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>152.65</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39">
@@ -1512,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>157.9799999999461</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40">
@@ -1523,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>156.3849999999413</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41">
@@ -1534,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7899999999456</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1581,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>43.96000000005682</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -1592,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>50.68000000006708</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -1603,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>28.35500000005726</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -1614,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>47.35500000006272</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -1625,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>46.75500000006599</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -1636,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4.919999999942945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1647,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1658,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>7.979999999946074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1669,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.384999999941272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1680,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>9.789999999945564</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1947,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1958,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1969,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1980,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1991,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2005,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2032,7 +1915,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2043,7 +1926,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2054,7 +1937,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2065,7 +1948,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2076,100 +1959,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
         <v>1</v>
       </c>
     </row>
